--- a/Milestone 2/USE/USE_LSTM_Summary.xlsx
+++ b/Milestone 2/USE/USE_LSTM_Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Capstone\chatbot\Milestone 2\USE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,14 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -395,7 +394,7 @@
   <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,21 +408,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
@@ -435,13 +434,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>9.4E-2</v>
+        <v>0.63</v>
       </c>
       <c r="D5" s="3">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -449,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.2E-2</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
